--- a/req_res_규약.xlsx
+++ b/req_res_규약.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leade\AppData\Roaming\SPB_Data\com.libisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5867A608-45C5-4388-8000-8F9EF2539B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0612F5E4-0B4D-40EF-9ECE-46F6AAFDD299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61723664-65C9-4841-8AB5-89E9B32D5950}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -47,14 +47,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>{</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"password" : "1234"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -99,22 +91,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>/auth/join</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/auth/login</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>댓글목록 받기</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>/comment</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -124,6 +104,58 @@
   </si>
   <si>
     <t>json 형식 (body에 포함)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글삭제</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "commentId" : "댓글 번호"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/comment</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/auth/login</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/auth/join</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/seat/CNTMRRNTB</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 참고 ( taken 0 회색 / 1 빨강 / 3 주황 / 4 노랑 )                               3은 6시간 임박 4는, 12시간 임박</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ // 로그인 폼 통해 아래 json 전달</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{  // 회원가입 폼 통해 아래 json 전달</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ // 보류</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ // 댓글 작성 폼 통해 아래 json 전달</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +267,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -262,39 +306,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -306,6 +359,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC6EFCE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -614,211 +672,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3337CBAE-1E8E-4F8E-928A-B8ECF3AF56A4}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" customWidth="1"/>
     <col min="4" max="4" width="62.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>22</v>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="11"/>
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
-      <c r="D12" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="12"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="11"/>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="19">
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
